--- a/Module 1/1. Hoc_Cach_Hoc/Bai_Tap/Book1.xlsx
+++ b/Module 1/1. Hoc_Cach_Hoc/Bai_Tap/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\Module 1\1. Hoc_Cach_Hoc\Bai_Tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23034C03-37D1-463B-A10A-F66566997186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48523C7F-34C9-428F-8D71-0EDC16143E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7AABE5A-8D51-4062-A1CF-AEC4E5D5EAF6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Specific</t>
   </si>
@@ -163,6 +163,36 @@
   </si>
   <si>
     <t xml:space="preserve">Tự rèn luyện thêm để nâng cao khả năng tại nhà </t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>End If</t>
+  </si>
+  <si>
+    <t>Input vào N số lượng số tự nhiên</t>
+  </si>
+  <si>
+    <t>Input a1, a2,…,aN</t>
+  </si>
+  <si>
+    <t>Max = a1</t>
+  </si>
+  <si>
+    <t>For i = 1-&gt;N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Max = ai</t>
+  </si>
+  <si>
+    <t>Display Max</t>
+  </si>
+  <si>
+    <t>If ai &gt; Max</t>
   </si>
 </sst>
 </file>
@@ -219,6 +249,2113 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3947160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53482893-3C99-4205-9510-12F12E632F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8793480" y="5882640"/>
+          <a:ext cx="327660" cy="693420"/>
+          <a:chOff x="9486900" y="2354580"/>
+          <a:chExt cx="327660" cy="693420"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Flowchart: Connector 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6901C2-45F2-4748-ADE9-9DDBB31CC789}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9486900" y="2354580"/>
+            <a:ext cx="327660" cy="289560"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A612E56-8505-48B4-B5F9-727E9133046C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9646920" y="2628900"/>
+            <a:ext cx="0" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Data 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150C7808-9F0B-44A7-B4BD-7DA7021E8BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10599420" y="2438400"/>
+          <a:ext cx="1821180" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> số N ngẫu nhiên từ 0-9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Data 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECBAED3-32BD-4E59-8A12-F5C792869768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9311640" y="4815840"/>
+          <a:ext cx="1257300" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display "Đúng"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABABF461-12CA-49F4-AD91-DC3D680FDB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11414760" y="2948940"/>
+          <a:ext cx="0" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFC1C33-48DF-41D2-B48A-8ED4D05CF17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11414760" y="3749040"/>
+          <a:ext cx="0" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DBE318-27F5-4A3C-B752-78A21293A2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12374880" y="5745480"/>
+          <a:ext cx="373380" cy="739140"/>
+          <a:chOff x="9456420" y="4770120"/>
+          <a:chExt cx="373380" cy="739140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Flowchart: Summing Junction 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED3FD54-A965-4CD2-A17C-958E86451CCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9456420" y="5128260"/>
+            <a:ext cx="373380" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartSummingJunction">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94872AF5-14B8-4723-9C41-F518E7ED7002}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9631680" y="4770120"/>
+            <a:ext cx="0" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2407920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Data 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99422DAF-90E6-43B1-A4D9-01885598FEA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="6583680"/>
+          <a:ext cx="2819400" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Input N</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Input dãy số a1, a2,...,aN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Decision 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85E2D8E-8E7F-435D-941A-AEC919847135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="4137660"/>
+          <a:ext cx="1493520" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>N == M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Flowchart: Data 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6556C046-0AC4-4C8F-A18B-BCE12B9540E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12451080" y="4808220"/>
+          <a:ext cx="1257300" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display "Sai"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC02DE5-37F5-4244-869C-AE9022463ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="1"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9940290" y="4389120"/>
+          <a:ext cx="727710" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connector: Elbow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F86F0-3CE1-4582-A16A-910D7FEDC093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12161520" y="4389120"/>
+          <a:ext cx="1043940" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connector: Elbow 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1693C175-8FCE-4AC0-930B-92B2913C4F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10405110" y="4690110"/>
+          <a:ext cx="457200" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connector: Elbow 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7382D7B7-328C-4B48-B19B-592D1A33D21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11974830" y="4751070"/>
+          <a:ext cx="457200" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3424462</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Flowchart: Process 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CCD0F0-87A1-4F29-8036-F2DA270D258E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8598442" y="7673340"/>
+          <a:ext cx="690338" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = a</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389068</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Flowchart: Data 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7005ECC2-78D7-4AB3-9795-61D0346BD9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10516048" y="10001923"/>
+          <a:ext cx="1637852" cy="316454"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display Max</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406998</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170778</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Group 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2321C8-C2EB-49AF-A859-3FB059C60773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11143578" y="10317480"/>
+          <a:ext cx="373380" cy="739140"/>
+          <a:chOff x="9456420" y="4770120"/>
+          <a:chExt cx="373380" cy="739140"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Flowchart: Summing Junction 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E29BF1-B472-43D4-B4FD-F1629706AF13}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9456420" y="5128260"/>
+            <a:ext cx="373380" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartSummingJunction">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8CEEC9-491A-4B03-949D-F2D42FE0EB44}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9631680" y="4770120"/>
+            <a:ext cx="0" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3756660</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>92786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3764280</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D554089E-D952-48B1-9322-817C12F1CA07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8930640" y="8733866"/>
+          <a:ext cx="7620" cy="333934"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2530738</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28241</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Flowchart: Decision 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493FF2E9-9C52-4069-BE9C-28E0B3D98887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7704718" y="8231394"/>
+          <a:ext cx="2450503" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>            i &gt; N		</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3860652</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>62305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189605</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA21780-D635-409D-8156-5DEABB863B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9034632" y="9617785"/>
+          <a:ext cx="672353" cy="222325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đúng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2086088</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2755752</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E35CC0E-2AEE-46C8-AAA1-D7C9A54AA7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7260068" y="9630784"/>
+          <a:ext cx="669664" cy="218739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3756660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3765625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A798445-3F3D-4292-8FF4-9133900BECF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8930640" y="7162800"/>
+          <a:ext cx="8965" cy="508299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3749040</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3758005</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F9232F-7033-476F-A285-E36FA4FA98EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8923020" y="7924800"/>
+          <a:ext cx="8965" cy="310179"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2545978</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>39894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43481</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Flowchart: Decision 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79DD737-0361-420F-A408-C3A24FDD122A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719958" y="9046734"/>
+          <a:ext cx="2450503" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>         ai &gt; Max</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3447322</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4137660</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Flowchart: Process 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB837CE-30CA-4330-B3A0-1F4F5069D5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8621302" y="9974580"/>
+          <a:ext cx="690338" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Max</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = ai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i= i+1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3787140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3787141</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC48B6-2D56-4B90-93A5-ED4A643B5FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8961120" y="9427286"/>
+          <a:ext cx="1" cy="554914"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1656622</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2346960</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Flowchart: Process 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCCFFBF-D542-4EC7-9C19-66F07C7D08A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6830602" y="10073640"/>
+          <a:ext cx="690338" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i= i+1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2001792</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2545979</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Connector: Elbow 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9559A54-01E3-4DD9-BB99-EADBBEEE6FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="1"/>
+          <a:endCxn id="102" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7175772" y="9298194"/>
+          <a:ext cx="544187" cy="775446"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3837792</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166745</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="TextBox 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D000BC-5738-4881-AC1B-6C13A9381474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9011772" y="8817685"/>
+          <a:ext cx="672353" cy="222325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đúng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165848</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225912</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6DFC03-C520-4D25-B35C-D63EB9D96669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10292828" y="8175364"/>
+          <a:ext cx="669664" cy="218739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28241</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598394</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Connector: Elbow 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9413AA-A915-4495-9BAD-F72A49F5A8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10155221" y="8482854"/>
+          <a:ext cx="1179753" cy="1519069"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1656622</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3741420</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Connector: Elbow 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ACE13B-2E50-4973-B39F-6D27C0A6AE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6830602" y="8092440"/>
+          <a:ext cx="2084798" cy="2141220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -10965"/>
+            <a:gd name="adj2" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3792491</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Connector: Elbow 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C470C86-EE47-4634-895A-24C9A2F9D007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="7668396" y="9202285"/>
+          <a:ext cx="251460" cy="2344691"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90909"/>
+            <a:gd name="adj2" fmla="val 100910"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,16 +2655,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D4D9AF-34A3-4271-ACA3-62630C851DC6}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="63.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
@@ -714,8 +2851,59 @@
         <v>41</v>
       </c>
     </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Module 1/1. Hoc_Cach_Hoc/Bai_Tap/Book1.xlsx
+++ b/Module 1/1. Hoc_Cach_Hoc/Bai_Tap/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\Module 1\1. Hoc_Cach_Hoc\Bai_Tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48523C7F-34C9-428F-8D71-0EDC16143E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A635002-3FA0-4AB3-9D8C-D5FE697492FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7AABE5A-8D51-4062-A1CF-AEC4E5D5EAF6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Specific</t>
   </si>
@@ -174,25 +174,37 @@
     <t>End If</t>
   </si>
   <si>
-    <t>Input vào N số lượng số tự nhiên</t>
-  </si>
-  <si>
-    <t>Input a1, a2,…,aN</t>
-  </si>
-  <si>
-    <t>Max = a1</t>
-  </si>
-  <si>
-    <t>For i = 1-&gt;N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Max = ai</t>
-  </si>
-  <si>
-    <t>Display Max</t>
-  </si>
-  <si>
-    <t>If ai &gt; Max</t>
+    <t>Input điểm của học viên M trong thang 100</t>
+  </si>
+  <si>
+    <t>If M =&gt; 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Display "Loại A"</t>
+  </si>
+  <si>
+    <t>Else If 60 &lt;= M &lt; 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Display "Loại B"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Display "Loại C"</t>
+  </si>
+  <si>
+    <t>Else If 45 &lt;= M &lt; 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else If 35 &lt;= M &lt;45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Display "Loại D"</t>
+  </si>
+  <si>
+    <t>Else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Display "Loại E"</t>
   </si>
 </sst>
 </file>
@@ -258,13 +270,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3619500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3947160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -279,7 +291,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8793480" y="5882640"/>
+          <a:off x="8793480" y="5829300"/>
           <a:ext cx="327660" cy="693420"/>
           <a:chOff x="9486900" y="2354580"/>
           <a:chExt cx="327660" cy="693420"/>
@@ -610,134 +622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3032760</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Group 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DBE318-27F5-4A3C-B752-78A21293A2AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12374880" y="5745480"/>
-          <a:ext cx="373380" cy="739140"/>
-          <a:chOff x="9456420" y="4770120"/>
-          <a:chExt cx="373380" cy="739140"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Flowchart: Summing Junction 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED3FD54-A965-4CD2-A17C-958E86451CCA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9456420" y="5128260"/>
-            <a:ext cx="373380" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartSummingJunction">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94872AF5-14B8-4723-9C41-F518E7ED7002}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9631680" y="4770120"/>
-            <a:ext cx="0" cy="373380"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2407920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -752,8 +646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="6583680"/>
-          <a:ext cx="2819400" cy="579120"/>
+          <a:off x="8206740" y="6515100"/>
+          <a:ext cx="1440180" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
@@ -782,14 +676,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Input N</a:t>
+            <a:t>Input</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Input dãy số a1, a2,...,aN</a:t>
+            <a:t>  M</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1036,129 +927,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Connector: Elbow 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1693C175-8FCE-4AC0-930B-92B2913C4F54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10405110" y="4690110"/>
-          <a:ext cx="457200" cy="1638300"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Connector: Elbow 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7382D7B7-328C-4B48-B19B-592D1A33D21E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11974830" y="4751070"/>
-          <a:ext cx="457200" cy="1501140"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3424462</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>2857948</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Flowchart: Process 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CCD0F0-87A1-4F29-8036-F2DA270D258E}"/>
+        <xdr:cNvPr id="38" name="Flowchart: Data 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7005ECC2-78D7-4AB3-9795-61D0346BD9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,10 +951,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8598442" y="7673340"/>
-          <a:ext cx="690338" cy="327660"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="8031928" y="10001923"/>
+          <a:ext cx="1835972" cy="316454"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1196,11 +981,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Max</a:t>
+            <a:t>Display</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> = a</a:t>
+            <a:t> "Loại A"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1210,79 +995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>389068</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:colOff>490818</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>31377</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Flowchart: Data 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7005ECC2-78D7-4AB3-9795-61D0346BD9E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10516048" y="10001923"/>
-          <a:ext cx="1637852" cy="316454"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartInputOutput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Display Max</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406998</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>170778</xdr:colOff>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254598</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1297,7 +1019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11143578" y="10317480"/>
+          <a:off x="12446598" y="10378440"/>
           <a:ext cx="373380" cy="739140"/>
           <a:chOff x="9456420" y="4770120"/>
           <a:chExt cx="373380" cy="739140"/>
@@ -1391,16 +1113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3756660</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>92786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3764280</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46169</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1411,12 +1133,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8930640" y="8733866"/>
-          <a:ext cx="7620" cy="333934"/>
+          <a:off x="12611549" y="8976360"/>
+          <a:ext cx="18825" cy="998219"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1444,79 +1169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2530738</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>138954</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355452</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28241</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>93234</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Flowchart: Decision 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493FF2E9-9C52-4069-BE9C-28E0B3D98887}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7704718" y="8231394"/>
-          <a:ext cx="2450503" cy="502920"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>            i &gt; N		</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3860652</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>62305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>189605</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>101750</xdr:rowOff>
+      <xdr:colOff>418205</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1531,7 +1193,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9034632" y="9617785"/>
+          <a:off x="9872832" y="8787205"/>
           <a:ext cx="672353" cy="222325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1574,22 +1236,250 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2086088</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>75304</xdr:rowOff>
+      <xdr:colOff>3787140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2755752</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>111163</xdr:rowOff>
+      <xdr:colOff>3794760</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A798445-3F3D-4292-8FF4-9133900BECF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8961120" y="6804660"/>
+          <a:ext cx="7620" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3775934</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3787589</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F9232F-7033-476F-A285-E36FA4FA98EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="2"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8949914" y="7642860"/>
+          <a:ext cx="11655" cy="2359063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2866018</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="TextBox 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E35CC0E-2AEE-46C8-AAA1-D7C9A54AA7A3}"/>
+        <xdr:cNvPr id="94" name="Flowchart: Decision 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79DD737-0361-420F-A408-C3A24FDD122A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039998" y="7179834"/>
+          <a:ext cx="1843142" cy="463026"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>      M =&gt; 75</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427169</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434341</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC48B6-2D56-4B90-93A5-ED4A643B5FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14821349" y="9631680"/>
+          <a:ext cx="7172" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3075792</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3748145</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="TextBox 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D000BC-5738-4881-AC1B-6C13A9381474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1487,73 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7260068" y="9630784"/>
+          <a:off x="8249772" y="8512885"/>
+          <a:ext cx="672353" cy="222325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Đúng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28688</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88752</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6DFC03-C520-4D25-B35C-D63EB9D96669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10155668" y="7108564"/>
           <a:ext cx="669664" cy="218739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,128 +1596,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3756660</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3765625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>127299</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A798445-3F3D-4292-8FF4-9133900BECF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8930640" y="7162800"/>
-          <a:ext cx="8965" cy="508299"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3749040</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>4336678</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3758005</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142539</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F9232F-7033-476F-A285-E36FA4FA98EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8923020" y="7924800"/>
-          <a:ext cx="8965" cy="310179"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2545978</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>39894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>43481</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>177054</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Flowchart: Decision 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79DD737-0361-420F-A408-C3A24FDD122A}"/>
+        <xdr:cNvPr id="43" name="Flowchart: Decision 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3996B84-BD00-4AC7-AC53-BBCF57BE298D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,8 +1619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719958" y="9046734"/>
-          <a:ext cx="2450503" cy="502920"/>
+          <a:off x="9510658" y="7728474"/>
+          <a:ext cx="2376542" cy="562086"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1799,7 +1649,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>         ai &gt; Max</a:t>
+            <a:t>      60 &lt;= M &lt; 75</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1809,23 +1659,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3447322</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290008</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4137660</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>42583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>176157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Flowchart: Process 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB837CE-30CA-4330-B3A0-1F4F5069D5E5}"/>
+        <xdr:cNvPr id="44" name="Flowchart: Data 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F25399-5A95-4B33-8505-E94D34B33521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,10 +1683,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8621302" y="9974580"/>
-          <a:ext cx="690338" cy="525780"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="9807388" y="9963823"/>
+          <a:ext cx="1835972" cy="316454"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1863,19 +1713,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Max</a:t>
+            <a:t>Display</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> = ai</a:t>
+            <a:t> "Loại B"</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>i= i+1</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1883,76 +1727,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3787140</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>54686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3787141</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366208</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Straight Arrow Connector 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC48B6-2D56-4B90-93A5-ED4A643B5FC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8961120" y="9427286"/>
-          <a:ext cx="1" cy="554914"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1656622</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2346960</xdr:colOff>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>896</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Flowchart: Process 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCCFFBF-D542-4EC7-9C19-66F07C7D08A4}"/>
+        <xdr:cNvPr id="45" name="Flowchart: Data 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057F2149-11CD-4A50-AC81-ACF6DF479E14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,10 +1751,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6830602" y="10073640"/>
-          <a:ext cx="690338" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+          <a:off x="11712388" y="9974579"/>
+          <a:ext cx="1835972" cy="313317"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1990,7 +1781,510 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>i= i+1</a:t>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> "Loại C"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Flowchart: Data 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01799C42-F643-4AE6-A2D5-11843245EBBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13838368" y="9971443"/>
+          <a:ext cx="1835972" cy="316454"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> "Loại D"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229048</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>153297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Flowchart: Data 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9318B0-6118-4C30-A9B4-01912D69CDF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15842428" y="9940963"/>
+          <a:ext cx="1835972" cy="316454"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartInputOutput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> "Loại E"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77098</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Flowchart: Decision 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A34293-377C-4927-89EB-39DA0B40D74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11423278" y="8414274"/>
+          <a:ext cx="2376542" cy="562086"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     45 &lt;= M &lt; 60</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458098</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Flowchart: Decision 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F5C1AB-68E0-49FC-A6D4-13A2E5A3829F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13633078" y="9069594"/>
+          <a:ext cx="2376542" cy="562086"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     35 &lt;= M &lt; 45 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571949</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1794</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD79EA0D-F543-4A3D-8255-EE86F133443B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883140" y="7411347"/>
+          <a:ext cx="815789" cy="317127"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571949</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598394</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B164BE05-F568-425D-BF35-CC4D682A4245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10698929" y="8290560"/>
+          <a:ext cx="26445" cy="1673263"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46169</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Connector: Elbow 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AACFE99-3C71-4B95-89FA-C5E6EE1F4C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="8009517"/>
+          <a:ext cx="724349" cy="404757"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28688</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88752</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB458F5-6C7E-486F-BAA5-DE465B321B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11984468" y="7695304"/>
+          <a:ext cx="669664" cy="218739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1999,35 +2293,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2001792</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>108474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2545979</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>427169</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="Connector: Elbow 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9559A54-01E3-4DD9-BB99-EADBBEEE6FD5}"/>
+        <xdr:cNvPr id="69" name="Connector: Elbow 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C021157-2888-4674-900E-95642A1735FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="94" idx="1"/>
-          <a:endCxn id="102" idx="0"/>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="51" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7175772" y="9298194"/>
-          <a:ext cx="544187" cy="775446"/>
+        <a:xfrm>
+          <a:off x="13799820" y="8695317"/>
+          <a:ext cx="1021529" cy="374277"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2055,23 +2349,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3837792</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>176605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>166745</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>33170</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203948</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264012</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="TextBox 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D000BC-5738-4881-AC1B-6C13A9381474}"/>
+        <xdr:cNvPr id="73" name="TextBox 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BE6016-7D65-4513-ACA9-C025A8C80F9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2373,139 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9011772" y="8817685"/>
+          <a:off x="13988528" y="8358244"/>
+          <a:ext cx="669664" cy="218739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>226808</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>98164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>286872</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4122AF40-0576-4AFE-A42E-F7981B3F1097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16449788" y="9105004"/>
+          <a:ext cx="669664" cy="218739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sai</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477372</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>92785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>540125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D2F62E-4071-4EAC-A82F-0EF84F5AA6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11823552" y="9282505"/>
           <a:ext cx="672353" cy="222325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2121,23 +2547,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>165848</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>82924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225912</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164952</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227705</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="TextBox 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6DFC03-C520-4D25-B35C-D63EB9D96669}"/>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4142D4B-DE04-4C15-BCC7-C7D184A698CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,8 +2571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10292828" y="8175364"/>
-          <a:ext cx="669664" cy="218739"/>
+          <a:off x="13949532" y="9655885"/>
+          <a:ext cx="672353" cy="222325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2178,7 +2604,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Sai</a:t>
+            <a:t>Đúng</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2187,35 +2613,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28241</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>24654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598394</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537434</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:rowOff>19723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="Connector: Elbow 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9413AA-A915-4495-9BAD-F72A49F5A8B7}"/>
+        <xdr:cNvPr id="78" name="Connector: Elbow 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBFE546-ED51-45B3-826E-3243176ECC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10155221" y="8482854"/>
-          <a:ext cx="1179753" cy="1519069"/>
+          <a:off x="16009620" y="9350637"/>
+          <a:ext cx="750794" cy="590326"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2244,43 +2670,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1656622</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3741420</xdr:colOff>
+      <xdr:colOff>3775934</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>153297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537434</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Connector: Elbow 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ACE13B-2E50-4973-B39F-6D27C0A6AE55}"/>
+        <xdr:cNvPr id="58" name="Connector: Elbow 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60237A59-995B-482C-A2BE-E590113819FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="102" idx="1"/>
+          <a:stCxn id="38" idx="4"/>
+          <a:endCxn id="48" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="6830602" y="8092440"/>
-          <a:ext cx="2084798" cy="2141220"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12824684" y="6382647"/>
+          <a:ext cx="60960" cy="7810500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -10965"/>
-            <a:gd name="adj2" fmla="val 100000"/>
+            <a:gd name="adj1" fmla="val -137500"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2301,40 +2725,139 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598394</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3792491</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:rowOff>176157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599090</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>115614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Connector: Elbow 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C470C86-EE47-4634-895A-24C9A2F9D007}"/>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9A3ECF-61C2-450E-A3E0-6A9811240943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="95" idx="2"/>
+          <a:stCxn id="44" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="7668396" y="9202285"/>
-          <a:ext cx="251460" cy="2344691"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -90909"/>
-            <a:gd name="adj2" fmla="val 100910"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="10730366" y="10334405"/>
+          <a:ext cx="696" cy="123388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51856</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52552</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B1D63D-E080-4DE9-A22D-AF2D30A88422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12622228" y="10323895"/>
+          <a:ext cx="696" cy="123388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419719</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>420415</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9392E2E2-357D-4797-B161-96E1DFE6FB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14818891" y="10323894"/>
+          <a:ext cx="696" cy="123388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100"/>
       </xdr:spPr>
@@ -2655,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D4D9AF-34A3-4271-ACA3-62630C851DC6}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2878,26 +3401,46 @@
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>45</v>
       </c>
     </row>
